--- a/oddiville-web/src/test_xlsx/Vendors.xlsx
+++ b/oddiville-web/src/test_xlsx/Vendors.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -31,86 +31,56 @@
     <t>materials</t>
   </si>
   <si>
-    <t>Rahul Shah</t>
+    <t>Rajesh Yadav</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>12 FC Road, Shivajinagar</t>
+  </si>
+  <si>
+    <t>carrot, peas</t>
+  </si>
+  <si>
+    <t>Mahesh bhatt</t>
   </si>
   <si>
     <t>Gujarat</t>
   </si>
   <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>12 CG Road, Navrangpura</t>
-  </si>
-  <si>
-    <t>tomato, potato, onion</t>
-  </si>
-  <si>
-    <t>Priya Patil</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>5 FC Road, Shivajinagar</t>
-  </si>
-  <si>
-    <t>carrot, cabbage, spinach</t>
-  </si>
-  <si>
-    <t>Amit Verma</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>144 Connaught Place</t>
-  </si>
-  <si>
-    <t>onion, ginger, garlic</t>
-  </si>
-  <si>
-    <t>Kavita Rao</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>88 MG Road, Brigade Road</t>
-  </si>
-  <si>
-    <t>capsicum, tomato, carrot</t>
-  </si>
-  <si>
-    <t>Suresh Yadav</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
-    <t>21 MI Road, Pink City</t>
-  </si>
-  <si>
-    <t>brinjal, potato, cabbage</t>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>45 Ring Road, Athwa</t>
+  </si>
+  <si>
+    <t>peas, okra</t>
+  </si>
+  <si>
+    <t>Pratham chouhan</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>78 Vijay Nagar</t>
+  </si>
+  <si>
+    <t>carrot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -119,12 +89,6 @@
     </font>
     <font>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -154,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -162,9 +126,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -409,122 +370,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.87654321E9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>9.87654321E9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.123456789E9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>9.584739201E9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
-        <v>9.09090909E9</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B4" s="2">
+        <v>9.012345678E9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8.701234567E9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3">
-        <v>9.822334455E9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
